--- a/data/Full.xlsx
+++ b/data/Full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmavanhee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorpeyton/github/EmmaColab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C3790F-55B1-7C47-832F-E64280F5C4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A940D7-0890-AF40-A240-C7D80F68771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27680" windowHeight="17500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27680" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BARTERCARD USA, INC._2017 (1)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="74">
   <si>
     <t>Outlet Type</t>
   </si>
@@ -133,10 +133,6 @@
   </si>
   <si>
     <t>1 4</t>
-  </si>
-  <si>
-    <t>TABLE NO. 1 
-SYSTEM-WIDE OUTLET SUMMARY FOR YEARS 2013 TO 2015</t>
   </si>
   <si>
     <t>Outlets at the 
@@ -838,7 +834,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1058,112 +1054,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B1F07-E900-C447-9C01-E43F73943571}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1177,13 +1184,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1197,82 +1204,62 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1272,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1504,13 +1491,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -1519,6 +1499,13 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1528,15 +1515,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C2793D-8762-A746-9503-7763B4EBAFA7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="108.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1548,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -1562,16 +1553,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1585,13 +1576,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1605,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1619,19 +1610,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1639,19 +1630,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1659,19 +1650,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1679,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,19 +1690,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,19 +1710,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1743,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CC40D2-BCC8-714F-BAEC-14723F90454F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1757,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1774,16 +1765,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,16 +1785,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1814,16 +1805,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1831,10 +1822,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1851,10 +1842,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1871,10 +1862,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1894,16 +1885,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1914,16 +1905,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1934,16 +1925,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
